--- a/Group C WDD_project_task_list.xlsx
+++ b/Group C WDD_project_task_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentncirl-my.sharepoint.com/personal/x24709515_student_ncirl_ie/Documents/Web-Design-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{79121A4C-96C8-4C6C-B535-2AAE90A8FCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AF6F230-D86B-4AC4-B27E-D1CAAA93FA82}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{79121A4C-96C8-4C6C-B535-2AAE90A8FCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21AFD84-D39A-4374-958A-82E3C834637E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC4871A7-87E9-400E-8844-9811E13AA789}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>WDD_Project_2024</t>
   </si>
@@ -105,6 +105,18 @@
     <t>add your tasks and assign them to a team member</t>
   </si>
   <si>
+    <t>implement css</t>
+  </si>
+  <si>
+    <t>add images</t>
+  </si>
+  <si>
+    <t>further discuss topics</t>
+  </si>
+  <si>
+    <t>choose a theme</t>
+  </si>
+  <si>
     <t>week 11</t>
   </si>
   <si>
@@ -147,10 +159,10 @@
     <t>Submission</t>
   </si>
   <si>
-    <t>SUNDAY 8th DEC 11pm</t>
-  </si>
-  <si>
-    <t>Antonio?</t>
+    <t>SUNDAY 8th DEC 9pm</t>
+  </si>
+  <si>
+    <t>Antonio</t>
   </si>
 </sst>
 </file>
@@ -531,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A20EA6-9FE1-4F65-A2C0-41C46F4D1B7C}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="23.45"/>
@@ -588,6 +600,9 @@
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="3" t="s">
@@ -650,7 +665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -658,93 +673,122 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="20" spans="1:3">
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="B32" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -754,6 +798,58 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DefaultSectionNames xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Invited_Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Owner xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Has_Teacher_Only_SectionGroup xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Invited_Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <CultureName xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Distribution_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <TeamsChannelId xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Math_Settings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <FolderType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Templates xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <AppVersion xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <LMS_Mappings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <NotebookType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009267F4E1BDB0BA4ABFCFBFE514C604C8" ma:contentTypeVersion="32" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61ddfe86c7f6991e5d8570e77096b500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a400bed3-dd80-47b5-be8a-0e5cea58c044" xmlns:ns3="bf565209-2b21-4ee4-af8d-f3a2c0cda902" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f845289874843908626a75dec0325abb" ns2:_="" ns3:_="">
     <xsd:import namespace="a400bed3-dd80-47b5-be8a-0e5cea58c044"/>
@@ -1156,7 +1252,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1165,66 +1261,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DefaultSectionNames xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Invited_Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Owner xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Has_Teacher_Only_SectionGroup xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Invited_Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <CultureName xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Distribution_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <TeamsChannelId xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Math_Settings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <FolderType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Templates xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <AppVersion xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <LMS_Mappings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <NotebookType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45813AF1-8288-45E9-83B6-FF3A559347C4}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A6CF24-95A3-4D7A-A7CF-B44ADA1363FA}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8144FC7C-9872-4D39-8984-1737A434D946}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45813AF1-8288-45E9-83B6-FF3A559347C4}"/>
 </file>